--- a/Input_Data/Inputs.xlsx
+++ b/Input_Data/Inputs.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275B8344-8739-4635-8129-85098BC64143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Valid Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Invalid Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Verify Product Version" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +21,49 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Product Version</t>
+  </si>
+  <si>
+    <t>ErrMsg</t>
+  </si>
+  <si>
+    <t>Username or Password is invalid. Please try again.</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>Title of home page</t>
+  </si>
+  <si>
+    <t>actiTIME 2020 Online</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -42,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,12 +89,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,12 +171,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -151,12 +206,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -335,13 +390,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>